--- a/example_file_2013-07-25_1904-dates.xlsx
+++ b/example_file_2013-07-25_1904-dates.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
